--- a/data/sheets/Copper Colour.xlsx
+++ b/data/sheets/Copper Colour.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BF7A3E-BDD2-4670-BB1B-D591F4D1E6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF9FE1D-38C3-43F9-A1A1-4E5656144F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4FCA88C-172C-4DB9-9AC1-D5CBC1661D90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E45945D-46F4-4307-9037-FF34604B816E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Copper Colour" sheetId="2" r:id="rId1"/>
+    <sheet name="Copper Colour" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -185,14 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -348,84 +340,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{1B22FC0B-F5A8-401A-B1B9-BC2438BE5BBE}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{4E9F11F3-5A6C-4B8B-ABB4-CFB9ADDD11A9}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1393,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96645130-B2C3-4038-B407-3F70811593DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECD5D78-F770-4537-B97B-9C34020D5F83}">
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1404,7 +1394,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1" collapsed="1"/>
@@ -1416,7 +1406,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
         <v>0.2</v>
       </c>
@@ -1436,7 +1426,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1460,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1489,7 @@
         <v>0.64320333995749457</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1518,7 @@
         <v>0.17633682886484459</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1547,7 @@
         <v>0.22480938551522978</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1586,7 +1576,7 @@
         <v>6.6344448863367544E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1605,7 @@
         <v>0.36380655379629245</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1616,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1645,7 @@
         <v>0.50535166391307995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1674,7 @@
         <v>0.74617708669000349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +1703,7 @@
         <v>0.22453363372724522</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1732,7 @@
         <v>0.44870349868908987</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1743,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1775,7 @@
         <v>0.7117061244523879</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1804,7 @@
         <v>-7.5763773048785898E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1836,7 @@
         <v>0.33190304410028237</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
@@ -1875,7 +1865,7 @@
         <v>0.21179876516326424</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1897,7 @@
         <v>0.94992457193577873</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1933,7 +1923,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1949,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
@@ -1985,7 +1975,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
@@ -2011,16 +2001,16 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
     </row>
   </sheetData>
